--- a/文档/数据结构定义_book类.xlsx
+++ b/文档/数据结构定义_book类.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Documents\GitHub\Library-Management-System\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2578EC8E-3857-4906-A548-E1ED0FD8B7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B28FD-14DA-4186-BDBD-CF2FE2674A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{15B6994B-835E-4379-AED1-D7BE4FA2554E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,22 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：下述数据结构未使用，仅作为备选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id1,id2,…,value&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +272,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,19 +591,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1235B1C-D065-49FA-AD1C-D8951E4D2906}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -616,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -648,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -680,9 +699,126 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="1"/>
+    <row r="6" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/数据结构定义_book类.xlsx
+++ b/文档/数据结构定义_book类.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Documents\GitHub\Library-Management-System\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skywo\Documents\GitHub\Library-Management-System\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B28FD-14DA-4186-BDBD-CF2FE2674A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51078E-194C-4DC6-80B3-EEE0497FD5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{15B6994B-835E-4379-AED1-D7BE4FA2554E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{15B6994B-835E-4379-AED1-D7BE4FA2554E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,24 +106,108 @@
   <si>
     <t>&lt;id1,id2,…,value&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id（ISBN）</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>对应变量类型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>数据文档：</t>
+  </si>
+  <si>
+    <t>索引文档：</t>
+  </si>
+  <si>
+    <t>每一格4字节，顺序存储</t>
+  </si>
+  <si>
+    <t>根节点地址</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>根节点：</t>
+  </si>
+  <si>
+    <t>分支节点：</t>
+  </si>
+  <si>
+    <t>双亲节点地址</t>
+  </si>
+  <si>
+    <t>节点序号</t>
+  </si>
+  <si>
+    <t>关键字个数</t>
+  </si>
+  <si>
+    <t>2（变长）</t>
+  </si>
+  <si>
+    <t>关键字01</t>
+  </si>
+  <si>
+    <t>孩子地址01</t>
+  </si>
+  <si>
+    <t>…...</t>
+  </si>
+  <si>
+    <t>叶子节点：</t>
+  </si>
+  <si>
+    <t>&amp;(键值01)</t>
+  </si>
+  <si>
+    <t>关键字02</t>
+  </si>
+  <si>
+    <t>&amp;(键值02)</t>
+  </si>
+  <si>
+    <t>关键字n</t>
+  </si>
+  <si>
+    <t>&amp;(键值n)</t>
+  </si>
+  <si>
+    <t>空白数据记录：</t>
+  </si>
+  <si>
+    <t>下个叶子节点地址</t>
+  </si>
+  <si>
+    <t>下个空白数据地址</t>
+  </si>
+  <si>
+    <t>总长度 字节</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -137,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -231,19 +315,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +413,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,234 +756,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1235B1C-D065-49FA-AD1C-D8951E4D2906}">
-  <dimension ref="A2:K22"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.4140625" customWidth="1"/>
+    <col min="1" max="1" width="23.41796875" customWidth="1"/>
+    <col min="2" max="2" width="13.1015625" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" customWidth="1"/>
+    <col min="4" max="4" width="11.20703125" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" customWidth="1"/>
+    <col min="6" max="6" width="11.47265625" customWidth="1"/>
+    <col min="7" max="7" width="11.68359375" customWidth="1"/>
+    <col min="8" max="8" width="11.15625" customWidth="1"/>
+    <col min="9" max="9" width="11.83984375" customWidth="1"/>
+    <col min="10" max="10" width="12.1015625" customWidth="1"/>
+    <col min="11" max="11" width="12.3125" customWidth="1"/>
+    <col min="12" max="12" width="15.3125" customWidth="1"/>
+    <col min="13" max="13" width="11.9453125" customWidth="1"/>
+    <col min="14" max="14" width="11.68359375" customWidth="1"/>
+    <col min="15" max="15" width="15.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.7" thickBot="1"/>
+    <row r="3" spans="1:15" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.7" thickTop="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>8</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>8</v>
       </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="6">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.7" thickBot="1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.7" thickTop="1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <f xml:space="preserve"> SUM(B4:J4)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.7" thickBot="1">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.7" thickTop="1">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="17">
+        <v>2</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="M10" s="17">
+        <v>2</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.7" thickBot="1">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.7" thickTop="1">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.7" thickBot="1">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.7" thickTop="1">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="17">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="M15" s="17">
+        <v>2</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.7" thickBot="1">
+      <c r="B16" s="11"/>
+      <c r="C16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.7" thickTop="1">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.7" thickBot="1">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K22" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.7" thickTop="1">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B23" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C23" s="11">
         <v>6</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D23" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F23" s="6">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G23" s="6">
         <v>8</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H23" s="6">
         <v>8</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I23" s="6">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.7" thickBot="1">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.7" thickTop="1">
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/数据结构定义_book类.xlsx
+++ b/文档/数据结构定义_book类.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skywo\Documents\GitHub\Library-Management-System\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Documents\GitHub\Library-Management-System\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51078E-194C-4DC6-80B3-EEE0497FD5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8DA7BC-4607-444F-84E3-8CBF98429738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{15B6994B-835E-4379-AED1-D7BE4FA2554E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{15B6994B-835E-4379-AED1-D7BE4FA2554E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,24 +190,28 @@
   </si>
   <si>
     <t>总长度 字节</t>
+  </si>
+  <si>
+    <t>至多typeof(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -759,40 +763,40 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.41796875" customWidth="1"/>
-    <col min="2" max="2" width="13.1015625" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" customWidth="1"/>
-    <col min="4" max="4" width="11.20703125" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" customWidth="1"/>
-    <col min="6" max="6" width="11.47265625" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" customWidth="1"/>
-    <col min="8" max="8" width="11.15625" customWidth="1"/>
-    <col min="9" max="9" width="11.83984375" customWidth="1"/>
-    <col min="10" max="10" width="12.1015625" customWidth="1"/>
-    <col min="11" max="11" width="12.3125" customWidth="1"/>
-    <col min="12" max="12" width="15.3125" customWidth="1"/>
-    <col min="13" max="13" width="11.9453125" customWidth="1"/>
-    <col min="14" max="14" width="11.68359375" customWidth="1"/>
-    <col min="15" max="15" width="15.62890625" customWidth="1"/>
+    <col min="1" max="1" width="23.4140625" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.4140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.9140625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.7" thickBot="1"/>
-    <row r="3" spans="1:15" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -822,7 +826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.7" thickTop="1">
+    <row r="4" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -845,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -856,11 +860,11 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.7" thickBot="1">
+      <c r="M4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -898,21 +902,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.7" thickTop="1">
+    <row r="6" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6">
         <f xml:space="preserve"> SUM(B4:J4)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.7" thickBot="1">
+    <row r="9" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -923,7 +927,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" ht="14.7" thickTop="1">
+    <row r="10" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -949,7 +953,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" ht="14.7" thickBot="1">
+    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -989,7 +993,7 @@
       </c>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" ht="14.7" thickTop="1">
+    <row r="12" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1004,7 +1008,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1018,7 +1022,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" ht="14.7" thickBot="1">
+    <row r="14" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
         <v>42</v>
@@ -1037,7 +1041,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" ht="14.7" thickTop="1">
+    <row r="15" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="12">
         <v>1</v>
@@ -1064,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.7" thickBot="1">
+    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
@@ -1104,7 +1108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.7" thickTop="1">
+    <row r="17" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1119,22 +1123,22 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="14.7" thickBot="1">
+    <row r="21" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1152,7 +1156,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickTop="1" thickBot="1">
+    <row r="22" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1194,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="14.7" thickTop="1">
+    <row r="23" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1232,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="14.7" thickBot="1">
+    <row r="24" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1266,22 +1270,22 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" ht="14.7" thickTop="1">
+    <row r="25" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
